--- a/missnidatesting.xlsx
+++ b/missnidatesting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,13 +15,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,24 +46,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -114,7 +101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -146,10 +133,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +167,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,19 +342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1">
         <v>119.992</v>
       </c>
@@ -380,10 +362,67 @@
         <v>74.997</v>
       </c>
       <c r="D1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="F1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G1">
+        <v>5.5399999999999998E-3</v>
+      </c>
+      <c r="H1">
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="I1">
+        <v>4.3740000000000001E-2</v>
+      </c>
+      <c r="J1">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="K1">
+        <v>2.1819999999999999E-2</v>
+      </c>
+      <c r="L1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="M1">
+        <v>2.971E-2</v>
+      </c>
+      <c r="N1">
+        <v>6.5449999999999994E-2</v>
+      </c>
+      <c r="O1">
+        <v>2.2110000000000001E-2</v>
+      </c>
+      <c r="P1">
+        <v>21.033000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.41478300000000001</v>
+      </c>
+      <c r="R1">
+        <v>0.81528500000000004</v>
+      </c>
+      <c r="S1">
+        <v>-4.8130309999999996</v>
+      </c>
+      <c r="T1">
+        <v>0.266482</v>
+      </c>
+      <c r="U1">
+        <v>2.3014420000000002</v>
+      </c>
+      <c r="V1">
+        <v>0.28465400000000002</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>122.4</v>
       </c>
@@ -394,10 +433,67 @@
         <v>113.819</v>
       </c>
       <c r="D2">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.6799999999999994E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="F2">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="G2">
+        <v>6.96E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.3939999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.1339999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.626</v>
+      </c>
+      <c r="K2">
+        <v>3.134E-2</v>
+      </c>
+      <c r="L2">
+        <v>4.5179999999999998E-2</v>
+      </c>
+      <c r="M2">
+        <v>4.3679999999999997E-2</v>
+      </c>
+      <c r="N2">
+        <v>9.4030000000000002E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.9290000000000002E-2</v>
+      </c>
+      <c r="P2">
+        <v>19.085000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.45835900000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.81952100000000005</v>
+      </c>
+      <c r="S2">
+        <v>-4.0751920000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.33559</v>
+      </c>
+      <c r="U2">
+        <v>2.4868549999999998</v>
+      </c>
+      <c r="V2">
+        <v>0.368674</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>116.682</v>
       </c>
@@ -410,8 +506,65 @@
       <c r="D3">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="F3">
+        <v>5.4400000000000004E-3</v>
+      </c>
+      <c r="G3">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.6330000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>5.2330000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K3">
+        <v>2.7570000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.8580000000000003E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.3089999999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>20.651</v>
+      </c>
+      <c r="Q3">
+        <v>0.42989500000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.82528800000000002</v>
+      </c>
+      <c r="S3">
+        <v>-4.4431789999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.31117299999999998</v>
+      </c>
+      <c r="U3">
+        <v>2.3422589999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.33263399999999999</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>116.676</v>
       </c>
@@ -422,10 +575,67 @@
         <v>111.366</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="F4">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="G4">
+        <v>6.9800000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.5049999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.4919999999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K4">
+        <v>2.9239999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>4.0050000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.7719999999999997E-2</v>
+      </c>
+      <c r="N4">
+        <v>8.7709999999999996E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.353E-2</v>
+      </c>
+      <c r="P4">
+        <v>20.643999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.43496899999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.81923500000000005</v>
+      </c>
+      <c r="S4">
+        <v>-4.1175009999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.33414700000000003</v>
+      </c>
+      <c r="U4">
+        <v>2.405554</v>
+      </c>
+      <c r="V4">
+        <v>0.368975</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>116.014</v>
       </c>
@@ -436,10 +646,67 @@
         <v>110.655</v>
       </c>
       <c r="D5">
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2840000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="F5">
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="G5">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.966E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.4250000000000002E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K5">
+        <v>3.49E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.8250000000000001E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.4650000000000002E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.1047</v>
+      </c>
+      <c r="O5">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="P5">
+        <v>19.649000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.417356</v>
+      </c>
+      <c r="R5">
+        <v>0.82348399999999999</v>
+      </c>
+      <c r="S5">
+        <v>-3.7477870000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.234513</v>
+      </c>
+      <c r="U5">
+        <v>2.3321800000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.41033500000000001</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>120.55200000000001</v>
       </c>
@@ -450,10 +717,67 @@
         <v>113.78700000000001</v>
       </c>
       <c r="D6">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.6799999999999994E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="F6">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.388E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.7010000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="K6">
+        <v>2.3279999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.526E-2</v>
+      </c>
+      <c r="M6">
+        <v>3.243E-2</v>
+      </c>
+      <c r="N6">
+        <v>6.9849999999999995E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.222E-2</v>
+      </c>
+      <c r="P6">
+        <v>21.378</v>
+      </c>
+      <c r="Q6">
+        <v>0.41556399999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.82506900000000005</v>
+      </c>
+      <c r="S6">
+        <v>-4.2428670000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.29911100000000002</v>
+      </c>
+      <c r="U6">
+        <v>2.1875599999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.35777500000000001</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>120.267</v>
       </c>
@@ -464,48 +788,2362 @@
         <v>114.82</v>
       </c>
       <c r="D7">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>4.6600000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.6080000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>7.79E-3</v>
+      </c>
+      <c r="L7">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.3509999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.3369999999999998E-2</v>
+      </c>
+      <c r="O7">
+        <v>6.0699999999999999E-3</v>
+      </c>
+      <c r="P7">
+        <v>24.885999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.59604000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.76411200000000001</v>
+      </c>
+      <c r="S7">
+        <v>-5.6343220000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.25768200000000002</v>
+      </c>
+      <c r="U7">
+        <v>1.8547849999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.211756</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>107.33199999999999</v>
+      </c>
+      <c r="B8">
+        <v>113.84</v>
+      </c>
+      <c r="C8">
+        <v>104.315</v>
+      </c>
+      <c r="D8">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.82E-3</v>
+      </c>
+      <c r="H8">
+        <v>4.3099999999999996E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.567E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K8">
+        <v>8.2900000000000005E-3</v>
+      </c>
+      <c r="L8">
+        <v>9.4599999999999997E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.256E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.487E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="P8">
+        <v>26.891999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.63741999999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.763262</v>
+      </c>
+      <c r="S8">
+        <v>-6.1676029999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.183721</v>
+      </c>
+      <c r="U8">
+        <v>2.0646930000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.16375500000000001</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>95.73</v>
+      </c>
+      <c r="B9">
+        <v>132.06800000000001</v>
+      </c>
+      <c r="C9">
+        <v>91.754000000000005</v>
+      </c>
+      <c r="D9">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F9">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="G9">
+        <v>3.32E-3</v>
+      </c>
+      <c r="H9">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="I9">
+        <v>2.0930000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.191</v>
+      </c>
+      <c r="K9">
+        <v>1.073E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.277E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7170000000000001E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.218E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="P9">
+        <v>21.812000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.61555099999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.77358700000000002</v>
+      </c>
+      <c r="S9">
+        <v>-5.498678</v>
+      </c>
+      <c r="T9">
+        <v>0.32776899999999998</v>
+      </c>
+      <c r="U9">
+        <v>2.322511</v>
+      </c>
+      <c r="V9">
+        <v>0.231571</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>95.055999999999997</v>
+      </c>
+      <c r="B10">
+        <v>120.10299999999999</v>
+      </c>
+      <c r="C10">
+        <v>91.225999999999999</v>
+      </c>
+      <c r="D10">
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F10">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>3.32E-3</v>
+      </c>
+      <c r="H10">
+        <v>8.0300000000000007E-3</v>
+      </c>
+      <c r="I10">
+        <v>2.8379999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.255</v>
+      </c>
+      <c r="K10">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.444E-2</v>
+      </c>
+      <c r="N10">
+        <v>4.3240000000000001E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.022E-2</v>
+      </c>
+      <c r="P10">
+        <v>21.861999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.547037</v>
+      </c>
+      <c r="R10">
+        <v>0.79846300000000003</v>
+      </c>
+      <c r="S10">
+        <v>-5.0118790000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.32599600000000001</v>
+      </c>
+      <c r="U10">
+        <v>2.4327920000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.27136199999999999</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>88.332999999999998</v>
+      </c>
+      <c r="B11">
+        <v>112.24</v>
+      </c>
+      <c r="C11">
+        <v>84.072000000000003</v>
+      </c>
+      <c r="D11">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F11">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="G11">
         <v>3.3E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="1"/>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="H11">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="I11">
+        <v>2.1430000000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K11">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.342E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.8919999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>3.2370000000000003E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.166E-2</v>
+      </c>
+      <c r="P11">
+        <v>21.117999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.61113700000000004</v>
+      </c>
+      <c r="R11">
+        <v>0.77615599999999996</v>
+      </c>
+      <c r="S11">
+        <v>-5.2497699999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.39100200000000002</v>
+      </c>
+      <c r="U11">
+        <v>2.4073129999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.24973999999999999</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>91.903999999999996</v>
+      </c>
+      <c r="B12">
+        <v>115.871</v>
+      </c>
+      <c r="C12">
+        <v>86.292000000000002</v>
+      </c>
+      <c r="D12">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F12">
+        <v>2.81E-3</v>
+      </c>
+      <c r="G12">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>8.4399999999999996E-3</v>
+      </c>
+      <c r="I12">
+        <v>2.7519999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.249</v>
+      </c>
+      <c r="K12">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.6410000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.214E-2</v>
+      </c>
+      <c r="N12">
+        <v>4.2720000000000001E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.141E-2</v>
+      </c>
+      <c r="P12">
+        <v>21.414000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.58338999999999996</v>
+      </c>
+      <c r="R12">
+        <v>0.79252</v>
+      </c>
+      <c r="S12">
+        <v>-4.9602339999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.363566</v>
+      </c>
+      <c r="U12">
+        <v>2.6424759999999998</v>
+      </c>
+      <c r="V12">
+        <v>0.27593099999999998</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>136.92599999999999</v>
+      </c>
+      <c r="B13">
+        <v>159.86600000000001</v>
+      </c>
+      <c r="C13">
+        <v>131.27600000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13">
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="I13">
+        <v>1.259E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.112</v>
+      </c>
+      <c r="K13">
+        <v>6.5599999999999999E-3</v>
+      </c>
+      <c r="L13">
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.968E-2</v>
+      </c>
+      <c r="O13">
+        <v>5.8100000000000001E-3</v>
+      </c>
+      <c r="P13">
+        <v>25.702999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.64684600000000003</v>
+      </c>
+      <c r="S13">
+        <v>-6.547148</v>
+      </c>
+      <c r="T13">
+        <v>0.152813</v>
+      </c>
+      <c r="U13">
+        <v>2.041277</v>
+      </c>
+      <c r="V13">
+        <v>0.138512</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>139.173</v>
+      </c>
+      <c r="B14">
+        <v>179.13900000000001</v>
+      </c>
+      <c r="C14">
+        <v>76.555999999999997</v>
+      </c>
+      <c r="D14">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>1.65E-3</v>
+      </c>
+      <c r="G14">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="H14">
+        <v>4.96E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.6420000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.154</v>
+      </c>
+      <c r="K14">
+        <v>7.28E-3</v>
+      </c>
+      <c r="L14">
+        <v>9.3200000000000002E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.797E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.1839999999999998E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.0410000000000001E-2</v>
+      </c>
+      <c r="P14">
+        <v>24.888999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.43016599999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.66583300000000001</v>
+      </c>
+      <c r="S14">
+        <v>-5.6602170000000003</v>
+      </c>
+      <c r="T14">
+        <v>0.25498900000000002</v>
+      </c>
+      <c r="U14">
+        <v>2.5194220000000001</v>
+      </c>
+      <c r="V14">
+        <v>0.19988900000000001</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>152.845</v>
+      </c>
+      <c r="B15">
+        <v>163.30500000000001</v>
+      </c>
+      <c r="C15">
+        <v>75.835999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F15">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.49E-3</v>
+      </c>
+      <c r="H15">
+        <v>3.64E-3</v>
+      </c>
+      <c r="I15">
+        <v>1.8280000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.158</v>
+      </c>
+      <c r="K15">
+        <v>1.064E-2</v>
+      </c>
+      <c r="L15">
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <v>3.1910000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>6.0899999999999999E-3</v>
+      </c>
+      <c r="P15">
+        <v>24.922000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.47479100000000002</v>
+      </c>
+      <c r="R15">
+        <v>0.65402700000000003</v>
+      </c>
+      <c r="S15">
+        <v>-6.1050979999999999</v>
+      </c>
+      <c r="T15">
+        <v>0.203653</v>
+      </c>
+      <c r="U15">
+        <v>2.1256179999999998</v>
+      </c>
+      <c r="V15">
+        <v>0.1701</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>142.167</v>
+      </c>
+      <c r="B16">
+        <v>217.45500000000001</v>
+      </c>
+      <c r="C16">
+        <v>83.159000000000006</v>
+      </c>
+      <c r="D16">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>1.57E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>4.7099999999999998E-3</v>
+      </c>
+      <c r="I16">
+        <v>1.503E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.126</v>
+      </c>
+      <c r="K16">
+        <v>7.7200000000000003E-3</v>
+      </c>
+      <c r="L16">
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="M16">
+        <v>1.359E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.316E-2</v>
+      </c>
+      <c r="O16">
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="P16">
+        <v>25.175000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.56592399999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.65824499999999997</v>
+      </c>
+      <c r="S16">
+        <v>-5.3401149999999999</v>
+      </c>
+      <c r="T16">
+        <v>0.21018500000000001</v>
+      </c>
+      <c r="U16">
+        <v>2.205546</v>
+      </c>
+      <c r="V16">
+        <v>0.23458899999999999</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>144.18799999999999</v>
+      </c>
+      <c r="B17">
+        <v>349.25900000000001</v>
+      </c>
+      <c r="C17">
+        <v>82.763999999999996</v>
+      </c>
+      <c r="D17">
+        <v>5.4400000000000004E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F17">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="G17">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="H17">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.0469999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.192</v>
+      </c>
+      <c r="K17">
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="L17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M17">
+        <v>2.0740000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>2.9080000000000002E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.8589999999999999E-2</v>
+      </c>
+      <c r="P17">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.56738</v>
+      </c>
+      <c r="R17">
+        <v>0.64469200000000004</v>
+      </c>
+      <c r="S17">
+        <v>-5.4400399999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.239764</v>
+      </c>
+      <c r="U17">
+        <v>2.2645010000000001</v>
+      </c>
+      <c r="V17">
+        <v>0.218164</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>168.77799999999999</v>
+      </c>
+      <c r="B18">
+        <v>232.18100000000001</v>
+      </c>
+      <c r="C18">
+        <v>75.602999999999994</v>
+      </c>
+      <c r="D18">
+        <v>7.1799999999999998E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F18">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="H18">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="I18">
+        <v>3.3270000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K18">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.8929999999999999E-2</v>
+      </c>
+      <c r="M18">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="N18">
+        <v>4.3220000000000001E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="P18">
+        <v>20.376000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.63109899999999997</v>
+      </c>
+      <c r="R18">
+        <v>0.60541699999999998</v>
+      </c>
+      <c r="S18">
+        <v>-2.9310700000000001</v>
+      </c>
+      <c r="T18">
+        <v>0.43432599999999999</v>
+      </c>
+      <c r="U18">
+        <v>3.007463</v>
+      </c>
+      <c r="V18">
+        <v>0.430788</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>153.04599999999999</v>
+      </c>
+      <c r="B19">
+        <v>175.82900000000001</v>
+      </c>
+      <c r="C19">
+        <v>68.623000000000005</v>
+      </c>
+      <c r="D19">
+        <v>7.4200000000000004E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F19">
+        <v>3.64E-3</v>
+      </c>
+      <c r="G19">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.5169999999999997E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K19">
+        <v>2.4709999999999999E-2</v>
+      </c>
+      <c r="L19">
+        <v>3.5720000000000002E-2</v>
+      </c>
+      <c r="M19">
+        <v>5.7669999999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>7.4130000000000001E-2</v>
+      </c>
+      <c r="O19">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P19">
+        <v>17.28</v>
+      </c>
+      <c r="Q19">
+        <v>0.66531799999999996</v>
+      </c>
+      <c r="R19">
+        <v>0.71946699999999997</v>
+      </c>
+      <c r="S19">
+        <v>-3.9490789999999998</v>
+      </c>
+      <c r="T19">
+        <v>0.35787000000000002</v>
+      </c>
+      <c r="U19">
+        <v>3.1090100000000001</v>
+      </c>
+      <c r="V19">
+        <v>0.37742900000000001</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>156.405</v>
+      </c>
+      <c r="B20">
+        <v>189.398</v>
+      </c>
+      <c r="C20">
+        <v>142.822</v>
+      </c>
+      <c r="D20">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F20">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G20">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="H20">
+        <v>1.116E-2</v>
+      </c>
+      <c r="I20">
+        <v>3.9949999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.721E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.3740000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="N20">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="O20">
+        <v>3.3649999999999999E-2</v>
+      </c>
+      <c r="P20">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.64955399999999996</v>
+      </c>
+      <c r="R20">
+        <v>0.68608000000000002</v>
+      </c>
+      <c r="S20">
+        <v>-4.5544659999999997</v>
+      </c>
+      <c r="T20">
+        <v>0.34017599999999998</v>
+      </c>
+      <c r="U20">
+        <v>2.8566760000000002</v>
+      </c>
+      <c r="V20">
+        <v>0.32211099999999998</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>153.84800000000001</v>
+      </c>
+      <c r="B21">
+        <v>165.738</v>
+      </c>
+      <c r="C21">
+        <v>65.781999999999996</v>
+      </c>
+      <c r="D21">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F21">
+        <v>4.28E-3</v>
+      </c>
+      <c r="G21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H21">
+        <v>1.285E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="L21">
+        <v>2.383E-2</v>
+      </c>
+      <c r="M21">
+        <v>4.0550000000000003E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.05</v>
+      </c>
+      <c r="O21">
+        <v>3.8710000000000001E-2</v>
+      </c>
+      <c r="P21">
+        <v>17.536000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.66012499999999996</v>
+      </c>
+      <c r="R21">
+        <v>0.70408700000000002</v>
+      </c>
+      <c r="S21">
+        <v>-4.0954420000000002</v>
+      </c>
+      <c r="T21">
+        <v>0.26256400000000002</v>
+      </c>
+      <c r="U21">
+        <v>2.7397100000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.36539100000000002</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>153.88</v>
+      </c>
+      <c r="B22">
+        <v>172.86</v>
+      </c>
+      <c r="C22">
+        <v>78.128</v>
+      </c>
+      <c r="D22">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>2.32E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>6.96E-3</v>
+      </c>
+      <c r="I22">
+        <v>4.1369999999999997E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.37</v>
+      </c>
+      <c r="K22">
+        <v>2.0209999999999999E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.5909999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>4.5249999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <v>6.062E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.8489999999999999E-2</v>
+      </c>
+      <c r="P22">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.62901700000000005</v>
+      </c>
+      <c r="R22">
+        <v>0.69895099999999999</v>
+      </c>
+      <c r="S22">
+        <v>-5.18696</v>
+      </c>
+      <c r="T22">
+        <v>0.237622</v>
+      </c>
+      <c r="U22">
+        <v>2.5575359999999998</v>
+      </c>
+      <c r="V22">
+        <v>0.25976500000000002</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>167.93</v>
+      </c>
+      <c r="B23">
+        <v>193.221</v>
+      </c>
+      <c r="C23">
+        <v>79.067999999999998</v>
+      </c>
+      <c r="D23">
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>2.47E-3</v>
+      </c>
+      <c r="H23">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="I23">
+        <v>4.351E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.377</v>
+      </c>
+      <c r="K23">
+        <v>2.2280000000000001E-2</v>
+      </c>
+      <c r="L23">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="M23">
+        <v>4.2459999999999998E-2</v>
+      </c>
+      <c r="N23">
+        <v>6.6850000000000007E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="P23">
+        <v>22.468</v>
+      </c>
+      <c r="Q23">
+        <v>0.61906000000000005</v>
+      </c>
+      <c r="R23">
+        <v>0.67983400000000005</v>
+      </c>
+      <c r="S23">
+        <v>-4.3309559999999996</v>
+      </c>
+      <c r="T23">
+        <v>0.26238400000000001</v>
+      </c>
+      <c r="U23">
+        <v>2.9167770000000002</v>
+      </c>
+      <c r="V23">
+        <v>0.28569499999999998</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>173.917</v>
+      </c>
+      <c r="B24">
+        <v>192.73500000000001</v>
+      </c>
+      <c r="C24">
+        <v>86.18</v>
+      </c>
+      <c r="D24">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="G24">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="H24">
+        <v>6.6299999999999996E-3</v>
+      </c>
+      <c r="I24">
+        <v>4.1919999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K24">
+        <v>2.1870000000000001E-2</v>
+      </c>
+      <c r="L24">
+        <v>2.47E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.7719999999999997E-2</v>
+      </c>
+      <c r="N24">
+        <v>6.5619999999999998E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.84E-2</v>
+      </c>
+      <c r="P24">
+        <v>20.422000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.53726399999999996</v>
+      </c>
+      <c r="R24">
+        <v>0.686894</v>
+      </c>
+      <c r="S24">
+        <v>-5.2487760000000003</v>
+      </c>
+      <c r="T24">
+        <v>0.21027899999999999</v>
+      </c>
+      <c r="U24">
+        <v>2.5475080000000001</v>
+      </c>
+      <c r="V24">
+        <v>0.253556</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>163.65600000000001</v>
+      </c>
+      <c r="B25">
+        <v>200.84100000000001</v>
+      </c>
+      <c r="C25">
+        <v>76.778999999999996</v>
+      </c>
+      <c r="D25">
+        <v>7.4200000000000004E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F25">
+        <v>3.8E-3</v>
+      </c>
+      <c r="G25">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H25">
+        <v>1.14E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K25">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="L25">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="M25">
+        <v>1.4970000000000001E-2</v>
+      </c>
+      <c r="N25">
+        <v>2.214E-2</v>
+      </c>
+      <c r="O25">
+        <v>1.7780000000000001E-2</v>
+      </c>
+      <c r="P25">
+        <v>23.831</v>
+      </c>
+      <c r="Q25">
+        <v>0.39793699999999999</v>
+      </c>
+      <c r="R25">
+        <v>0.73247899999999999</v>
+      </c>
+      <c r="S25">
+        <v>-5.5574469999999998</v>
+      </c>
+      <c r="T25">
+        <v>0.22089</v>
+      </c>
+      <c r="U25">
+        <v>2.6921759999999999</v>
+      </c>
+      <c r="V25">
+        <v>0.21596099999999999</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>104.4</v>
+      </c>
+      <c r="B26">
+        <v>206.00200000000001</v>
+      </c>
+      <c r="C26">
+        <v>77.968000000000004</v>
+      </c>
+      <c r="D26">
+        <v>6.3299999999999997E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F26">
+        <v>3.16E-3</v>
+      </c>
+      <c r="G26">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="H26">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="I26">
+        <v>3.7670000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K26">
+        <v>1.7319999999999999E-2</v>
+      </c>
+      <c r="L26">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="M26">
+        <v>3.78E-2</v>
+      </c>
+      <c r="N26">
+        <v>5.1970000000000002E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.887E-2</v>
+      </c>
+      <c r="P26">
+        <v>22.065999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.52274600000000004</v>
+      </c>
+      <c r="R26">
+        <v>0.73794800000000005</v>
+      </c>
+      <c r="S26">
+        <v>-5.5718430000000003</v>
+      </c>
+      <c r="T26">
+        <v>0.23685300000000001</v>
+      </c>
+      <c r="U26">
+        <v>2.8463690000000001</v>
+      </c>
+      <c r="V26">
+        <v>0.21951399999999999</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>171.041</v>
+      </c>
+      <c r="B27">
+        <v>208.31299999999999</v>
+      </c>
+      <c r="C27">
+        <v>75.501000000000005</v>
+      </c>
+      <c r="D27">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="H27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I27">
+        <v>1.966E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.186</v>
+      </c>
+      <c r="K27">
+        <v>8.8900000000000003E-3</v>
+      </c>
+      <c r="L27">
+        <v>1.1690000000000001E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="N27">
+        <v>2.666E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.095E-2</v>
+      </c>
+      <c r="P27">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.41862199999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.720916</v>
+      </c>
+      <c r="S27">
+        <v>-6.1835899999999997</v>
+      </c>
+      <c r="T27">
+        <v>0.22627800000000001</v>
+      </c>
+      <c r="U27">
+        <v>2.5897019999999999</v>
+      </c>
+      <c r="V27">
+        <v>0.14740300000000001</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>146.845</v>
+      </c>
+      <c r="B28">
+        <v>208.70099999999999</v>
+      </c>
+      <c r="C28">
+        <v>81.736999999999995</v>
+      </c>
+      <c r="D28">
+        <v>4.96E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F28">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="H28">
+        <v>7.4900000000000001E-3</v>
+      </c>
+      <c r="I28">
+        <v>1.9189999999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K28">
+        <v>8.8299999999999993E-3</v>
+      </c>
+      <c r="L28">
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="N28">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.328E-2</v>
+      </c>
+      <c r="P28">
+        <v>25.119</v>
+      </c>
+      <c r="Q28">
+        <v>0.35877300000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.72665199999999996</v>
+      </c>
+      <c r="S28">
+        <v>-6.2716900000000004</v>
+      </c>
+      <c r="T28">
+        <v>0.196102</v>
+      </c>
+      <c r="U28">
+        <v>2.314209</v>
+      </c>
+      <c r="V28">
+        <v>0.162999</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>155.358</v>
+      </c>
+      <c r="B29">
+        <v>227.38300000000001</v>
+      </c>
+      <c r="C29">
+        <v>80.055000000000007</v>
+      </c>
+      <c r="D29">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F29">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="G29">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="I29">
+        <v>1.7180000000000001E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.161</v>
+      </c>
+      <c r="K29">
+        <v>7.6899999999999998E-3</v>
+      </c>
+      <c r="L29">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.661E-2</v>
+      </c>
+      <c r="N29">
+        <v>2.307E-2</v>
+      </c>
+      <c r="O29">
+        <v>6.77E-3</v>
+      </c>
+      <c r="P29">
+        <v>25.97</v>
+      </c>
+      <c r="Q29">
+        <v>0.47047800000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.67625800000000003</v>
+      </c>
+      <c r="S29">
+        <v>-7.1209249999999997</v>
+      </c>
+      <c r="T29">
+        <v>0.27978900000000001</v>
+      </c>
+      <c r="U29">
+        <v>2.2417419999999999</v>
+      </c>
+      <c r="V29">
+        <v>0.108514</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>162.56800000000001</v>
+      </c>
+      <c r="B30">
+        <v>198.346</v>
+      </c>
+      <c r="C30">
+        <v>77.63</v>
+      </c>
+      <c r="D30">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F30">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G30">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>8.4100000000000008E-3</v>
+      </c>
+      <c r="I30">
+        <v>1.7909999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K30">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="L30">
+        <v>1.057E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.7989999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.17E-2</v>
+      </c>
+      <c r="P30">
+        <v>25.678000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.42778500000000003</v>
+      </c>
+      <c r="R30">
+        <v>0.72379700000000002</v>
+      </c>
+      <c r="S30">
+        <v>-6.6357290000000004</v>
+      </c>
+      <c r="T30">
+        <v>0.209866</v>
+      </c>
+      <c r="U30">
+        <v>1.9579610000000001</v>
+      </c>
+      <c r="V30">
+        <v>0.135242</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>197.07599999999999</v>
+      </c>
+      <c r="B31">
+        <v>206.89599999999999</v>
+      </c>
+      <c r="C31">
+        <v>192.05500000000001</v>
+      </c>
+      <c r="D31">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F31">
+        <v>1.66E-3</v>
+      </c>
+      <c r="G31">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.098E-2</v>
+      </c>
+      <c r="J31">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K31">
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="L31">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M31">
+        <v>8.0199999999999994E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.6889999999999999E-2</v>
+      </c>
+      <c r="O31">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="P31">
+        <v>26.774999999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.42222900000000002</v>
+      </c>
+      <c r="R31">
+        <v>0.741367</v>
+      </c>
+      <c r="S31">
+        <v>-7.3483000000000001</v>
+      </c>
+      <c r="T31">
+        <v>0.17755099999999999</v>
+      </c>
+      <c r="U31">
+        <v>1.7438670000000001</v>
+      </c>
+      <c r="V31">
+        <v>8.5569000000000006E-2</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>199.22800000000001</v>
+      </c>
+      <c r="B32">
+        <v>209.512</v>
+      </c>
+      <c r="C32">
+        <v>192.09100000000001</v>
+      </c>
+      <c r="D32">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F32">
+        <v>1.34E-3</v>
+      </c>
+      <c r="G32">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H32">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="I32">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="J32">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K32">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="L32">
+        <v>6.4099999999999999E-3</v>
+      </c>
+      <c r="M32">
+        <v>7.62E-3</v>
+      </c>
+      <c r="N32">
+        <v>1.5129999999999999E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.67E-3</v>
+      </c>
+      <c r="P32">
+        <v>30.94</v>
+      </c>
+      <c r="Q32">
+        <v>0.43243900000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.74205500000000002</v>
+      </c>
+      <c r="S32">
+        <v>-7.6825869999999998</v>
+      </c>
+      <c r="T32">
+        <v>0.173319</v>
+      </c>
+      <c r="U32">
+        <v>2.1031059999999999</v>
+      </c>
+      <c r="V32">
+        <v>6.8501000000000006E-2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>198.38300000000001</v>
+      </c>
+      <c r="B33">
+        <v>215.203</v>
+      </c>
+      <c r="C33">
+        <v>193.10400000000001</v>
+      </c>
+      <c r="D33">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F33">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="G33">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="H33">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="I33">
+        <v>1.2630000000000001E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.111</v>
+      </c>
+      <c r="K33">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="L33">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="M33">
+        <v>9.5099999999999994E-3</v>
+      </c>
+      <c r="N33">
+        <v>1.9189999999999999E-2</v>
+      </c>
+      <c r="O33">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="P33">
+        <v>30.774999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.46594600000000003</v>
+      </c>
+      <c r="R33">
+        <v>0.738703</v>
+      </c>
+      <c r="S33">
+        <v>-7.0679309999999997</v>
+      </c>
+      <c r="T33">
+        <v>0.175181</v>
+      </c>
+      <c r="U33">
+        <v>1.512275</v>
+      </c>
+      <c r="V33">
+        <v>9.6320000000000003E-2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>202.26599999999999</v>
+      </c>
+      <c r="B34">
+        <v>211.60400000000001</v>
+      </c>
+      <c r="C34">
+        <v>197.07900000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="G34">
+        <v>1.07E-3</v>
+      </c>
+      <c r="H34">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="I34">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="J34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K34">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="L34">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="M34">
+        <v>7.1900000000000002E-3</v>
+      </c>
+      <c r="N34">
+        <v>1.4069999999999999E-2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="P34">
+        <v>32.683999999999997</v>
+      </c>
+      <c r="Q34">
+        <v>0.368535</v>
+      </c>
+      <c r="R34">
+        <v>0.74213300000000004</v>
+      </c>
+      <c r="S34">
+        <v>-7.6957339999999999</v>
+      </c>
+      <c r="T34">
+        <v>0.17854</v>
+      </c>
+      <c r="U34">
+        <v>1.5446089999999999</v>
+      </c>
+      <c r="V34">
+        <v>5.6141000000000003E-2</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>203.184</v>
+      </c>
+      <c r="B35">
+        <v>211.52600000000001</v>
+      </c>
+      <c r="C35">
+        <v>196.16</v>
+      </c>
+      <c r="D35">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="G35">
+        <v>1.06E-3</v>
+      </c>
+      <c r="H35">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="I35">
+        <v>9.58E-3</v>
+      </c>
+      <c r="J35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K35">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="L35">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M35">
+        <v>7.26E-3</v>
+      </c>
+      <c r="N35">
+        <v>1.4030000000000001E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="P35">
+        <v>33.046999999999997</v>
+      </c>
+      <c r="Q35">
+        <v>0.34006799999999998</v>
+      </c>
+      <c r="R35">
+        <v>0.74189899999999998</v>
+      </c>
+      <c r="S35">
+        <v>-7.9649840000000003</v>
+      </c>
+      <c r="T35">
+        <v>0.163519</v>
+      </c>
+      <c r="U35">
+        <v>1.423287</v>
+      </c>
+      <c r="V35">
+        <v>4.4539000000000002E-2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>201.464</v>
+      </c>
+      <c r="B36">
+        <v>210.565</v>
+      </c>
+      <c r="C36">
+        <v>195.708</v>
+      </c>
+      <c r="D36">
+        <v>1.98E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F36">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="G36">
+        <v>1.15E-3</v>
+      </c>
+      <c r="H36">
+        <v>3.14E-3</v>
+      </c>
+      <c r="I36">
+        <v>1.1939999999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.107</v>
+      </c>
+      <c r="K36">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="L36">
+        <v>7.6E-3</v>
+      </c>
+      <c r="M36">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="N36">
+        <v>1.7579999999999998E-2</v>
+      </c>
+      <c r="O36">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="P36">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>0.344252</v>
+      </c>
+      <c r="R36">
+        <v>0.74273699999999998</v>
+      </c>
+      <c r="S36">
+        <v>-7.777685</v>
+      </c>
+      <c r="T36">
+        <v>0.170183</v>
+      </c>
+      <c r="U36">
+        <v>2.4470640000000001</v>
+      </c>
+      <c r="V36">
+        <v>5.7610000000000001E-2</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>177.876</v>
+      </c>
+      <c r="B37">
+        <v>192.92099999999999</v>
+      </c>
+      <c r="C37">
+        <v>168.01300000000001</v>
+      </c>
+      <c r="D37">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F37">
+        <v>2.33E-3</v>
+      </c>
+      <c r="G37">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="H37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I37">
+        <v>2.1260000000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.189</v>
+      </c>
+      <c r="K37">
+        <v>1.154E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="M37">
+        <v>1.6119999999999999E-2</v>
+      </c>
+      <c r="N37">
+        <v>3.4630000000000001E-2</v>
+      </c>
+      <c r="O37">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="P37">
+        <v>23.216000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.36014800000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.77883400000000003</v>
+      </c>
+      <c r="S37">
+        <v>-6.1496529999999998</v>
+      </c>
+      <c r="T37">
+        <v>0.21803700000000001</v>
+      </c>
+      <c r="U37">
+        <v>2.4770819999999998</v>
+      </c>
+      <c r="V37">
+        <v>0.165827</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>176.17</v>
+      </c>
+      <c r="B38">
+        <v>185.60400000000001</v>
+      </c>
+      <c r="C38">
+        <v>163.56399999999999</v>
+      </c>
+      <c r="D38">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F38">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="G38">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="H38">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="I38">
+        <v>1.8509999999999999E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K38">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="L38">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.491E-2</v>
+      </c>
+      <c r="N38">
+        <v>2.8139999999999998E-2</v>
+      </c>
+      <c r="O38">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="P38">
+        <v>24.951000000000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.34143499999999999</v>
+      </c>
+      <c r="R38">
+        <v>0.78362600000000004</v>
+      </c>
+      <c r="S38">
+        <v>-6.0064140000000004</v>
+      </c>
+      <c r="T38">
+        <v>0.19637099999999999</v>
+      </c>
+      <c r="U38">
+        <v>2.536527</v>
+      </c>
+      <c r="V38">
+        <v>0.17321800000000001</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>180.19800000000001</v>
+      </c>
+      <c r="B39">
+        <v>201.249</v>
+      </c>
+      <c r="C39">
+        <v>175.45599999999999</v>
+      </c>
+      <c r="D39">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F39">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="G39">
+        <v>1.66E-3</v>
+      </c>
+      <c r="H39">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="I39">
+        <v>1.444E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K39">
+        <v>7.26E-3</v>
+      </c>
+      <c r="L39">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="M39">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N39">
+        <v>2.1770000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <v>2.31E-3</v>
+      </c>
+      <c r="P39">
+        <v>26.738</v>
+      </c>
+      <c r="Q39">
+        <v>0.40388400000000002</v>
+      </c>
+      <c r="R39">
+        <v>0.76620900000000003</v>
+      </c>
+      <c r="S39">
+        <v>-6.4520580000000001</v>
+      </c>
+      <c r="T39">
+        <v>0.21229400000000001</v>
+      </c>
+      <c r="U39">
+        <v>2.2693979999999998</v>
+      </c>
+      <c r="V39">
+        <v>0.141929</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
